--- a/spreadsheets/Nami.xlsx
+++ b/spreadsheets/Nami.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4366634-12E4-4C59-91C0-4F79CBF54D6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9B6D5-8885-4E63-938B-B6F77828746F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2145" windowWidth="21525" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1812,7 +1812,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
